--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\waranti_daihatsu\excel\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\waranti\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA1563-EAA4-43C9-978C-4A1076B09225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160" xr2:uid="{595068E8-D0B7-46BC-95E3-63005FB0C994}"/>
+    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,54 +32,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>NAMA KARYAWAN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NOMOR POLISI</t>
   </si>
   <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>TIPE MESIN</t>
+  </si>
+  <si>
+    <t>MODEL KENDARAAN</t>
+  </si>
+  <si>
+    <t>VIN RANGKA</t>
+  </si>
+  <si>
     <t>KILOMETER</t>
   </si>
   <si>
-    <t>TANGGAL PERBAIKAN</t>
-  </si>
-  <si>
-    <t>TANGGAL PENYERAHAN</t>
-  </si>
-  <si>
-    <t>NO PART</t>
-  </si>
-  <si>
-    <t>BARCODE</t>
-  </si>
-  <si>
-    <t>LPD</t>
-  </si>
-  <si>
-    <t>NAMA RAK</t>
-  </si>
-  <si>
-    <t>MODEL KENDARAAN</t>
-  </si>
-  <si>
-    <t>VIN RANGKA</t>
-  </si>
-  <si>
-    <t>adwad</t>
-  </si>
-  <si>
-    <t>awdawdw</t>
-  </si>
-  <si>
-    <t>awdawdawda</t>
+    <t>D6242zah</t>
+  </si>
+  <si>
+    <t>d1525</t>
+  </si>
+  <si>
+    <t>yahaasd</t>
+  </si>
+  <si>
+    <t>ahdaman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,9 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,29 +412,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95617D17-BAF0-4EB3-BF1B-9C5420BD077F}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,66 +437,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>232131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>9769809</v>
-      </c>
       <c r="E2">
-        <v>8978</v>
-      </c>
-      <c r="F2" s="1">
-        <v>33126</v>
-      </c>
-      <c r="G2" s="1">
-        <v>33127</v>
-      </c>
-      <c r="H2">
-        <v>232</v>
-      </c>
-      <c r="I2">
-        <v>12313</v>
-      </c>
-      <c r="J2">
-        <v>1222</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>1920</v>
+      </c>
+      <c r="F2">
+        <v>12466</v>
       </c>
     </row>
   </sheetData>
